--- a/sb/CL登録.xlsx
+++ b/sb/CL登録.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\securebox\sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4383E280-9483-414A-9428-B7174A4A88CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7ABC76-AB74-46ED-9030-BE14D0D5E5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="480" windowWidth="25380" windowHeight="13350" activeTab="1"/>
+    <workbookView xWindow="11895" yWindow="1020" windowWidth="25380" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="16" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>クライアント名</t>
     <rPh sb="6" eb="7">
@@ -817,16 +817,24 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dklskd;skdalああああmasatake_maruo@radix.ad.jp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>masatake_maruo</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="202" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="203" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -960,7 +968,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="203" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -968,7 +976,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="203" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -983,7 +991,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="202" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -996,8 +1004,8 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準_Sheet1" xfId="4"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1332,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1539,12 +1547,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:BM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1778,7 +1786,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1851,7 +1859,7 @@
     </row>
     <row r="4" spans="2:65" x14ac:dyDescent="0.15">
       <c r="O4" s="7" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.15">
@@ -1867,19 +1875,19 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" 　,伊藤,具志堅,柳本,間渕"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"　,東京,大阪"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"　,代理店,ＤＴ,ＷＥＢ,顧客紹介,その他"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1"/>
-    <hyperlink ref="O4:O6" r:id="rId2" display="masatake_maruo@radix.ad.jp"/>
+    <hyperlink ref="O3" r:id="rId1" display="masatake_maruo@radix.ad.jp" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="O4:O6" r:id="rId2" display="masatake_maruo@radix.ad.jp" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1896,6 +1904,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D8179756E55E3B4997066969E1975891" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e8f73ba9ddb7af2bac718295b0d7fed2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c8da29d-62c2-491b-9323-2fbb0fb96441" xmlns:ns3="1bea822c-edbc-4618-9077-98111cbaab67" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d63984bb899c5aa52d50fab260f468a1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c8da29d-62c2-491b-9323-2fbb0fb96441"/>
@@ -2086,12 +2100,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B875497D-D317-413B-B13D-D9EAE8F58F2B}">
   <ds:schemaRefs>
@@ -2101,6 +2109,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09CA1C49-1485-4AAF-83A5-A0877571F892}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33C22B2-648D-43A6-ABBA-E4E3CFEB826D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2117,13 +2134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09CA1C49-1485-4AAF-83A5-A0877571F892}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>